--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>123.8181628761408</v>
+        <v>183.7489717497756</v>
       </c>
       <c r="R2">
-        <v>123.8181628761408</v>
+        <v>1653.74074574798</v>
       </c>
       <c r="S2">
-        <v>0.003089673548515958</v>
+        <v>0.00398254974366154</v>
       </c>
       <c r="T2">
-        <v>0.003089673548515958</v>
+        <v>0.004448695184961902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>7830.442633716945</v>
+        <v>9264.418110987419</v>
       </c>
       <c r="R3">
-        <v>7830.442633716945</v>
+        <v>83379.76299888677</v>
       </c>
       <c r="S3">
-        <v>0.1953954970464907</v>
+        <v>0.2007957139663903</v>
       </c>
       <c r="T3">
-        <v>0.1953954970464907</v>
+        <v>0.2242982469471909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>58.15589133909269</v>
+        <v>20.07002130792334</v>
       </c>
       <c r="R4">
-        <v>58.15589133909269</v>
+        <v>180.63019177131</v>
       </c>
       <c r="S4">
-        <v>0.001451182241659531</v>
+        <v>0.0004349948598569468</v>
       </c>
       <c r="T4">
-        <v>0.001451182241659531</v>
+        <v>0.0004859096968239245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>2470.840307228917</v>
+        <v>99.39908752241001</v>
       </c>
       <c r="R5">
-        <v>2470.840307228917</v>
+        <v>894.59178770169</v>
       </c>
       <c r="S5">
-        <v>0.06165565505513795</v>
+        <v>0.002154362044929638</v>
       </c>
       <c r="T5">
-        <v>0.06165565505513795</v>
+        <v>0.002406523627532039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>67.88908255149568</v>
+        <v>2893.17736984653</v>
       </c>
       <c r="R6">
-        <v>67.88908255149568</v>
+        <v>17359.06421907918</v>
       </c>
       <c r="S6">
-        <v>0.001694057622242361</v>
+        <v>0.06270632528132086</v>
       </c>
       <c r="T6">
-        <v>0.001694057622242361</v>
+        <v>0.04669727440980076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>4293.405377908397</v>
+        <v>99.60809838293733</v>
       </c>
       <c r="R7">
-        <v>4293.405377908397</v>
+        <v>896.472885446436</v>
       </c>
       <c r="S7">
-        <v>0.1071346943053044</v>
+        <v>0.002158892117349032</v>
       </c>
       <c r="T7">
-        <v>0.1071346943053044</v>
+        <v>0.002411583931271311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>31.88667975896988</v>
+        <v>5022.129168246779</v>
       </c>
       <c r="R8">
-        <v>31.88667975896988</v>
+        <v>45199.16251422101</v>
       </c>
       <c r="S8">
-        <v>0.0007956783456708246</v>
+        <v>0.1088489314589091</v>
       </c>
       <c r="T8">
-        <v>0.0007956783456708246</v>
+        <v>0.1215893707392322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>1354.753435946433</v>
+        <v>10.879716158138</v>
       </c>
       <c r="R9">
-        <v>1354.753435946433</v>
+        <v>97.917445423242</v>
       </c>
       <c r="S9">
-        <v>0.03380558844175336</v>
+        <v>0.0002358054599386117</v>
       </c>
       <c r="T9">
-        <v>0.03380558844175336</v>
+        <v>0.0002634057781415576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>102.2905192696006</v>
+        <v>53.88304486726199</v>
       </c>
       <c r="R10">
-        <v>102.2905192696006</v>
+        <v>484.947403805358</v>
       </c>
       <c r="S10">
-        <v>0.002552487488991383</v>
+        <v>0.001167853645548792</v>
       </c>
       <c r="T10">
-        <v>0.002552487488991383</v>
+        <v>0.001304547394031158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>6469.002806276251</v>
+        <v>1568.356510247046</v>
       </c>
       <c r="R11">
-        <v>6469.002806276251</v>
+        <v>9410.139061482276</v>
       </c>
       <c r="S11">
-        <v>0.1614230609754803</v>
+        <v>0.03399234160809342</v>
       </c>
       <c r="T11">
-        <v>0.1614230609754803</v>
+        <v>0.02531402847772473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>48.04461789352361</v>
+        <v>149.498150205404</v>
       </c>
       <c r="R12">
-        <v>48.04461789352361</v>
+        <v>1345.483351848636</v>
       </c>
       <c r="S12">
-        <v>0.001198872456237844</v>
+        <v>0.003240202185126695</v>
       </c>
       <c r="T12">
-        <v>0.001198872456237844</v>
+        <v>0.003619458082656206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>2041.24768279378</v>
+        <v>7537.529909055146</v>
       </c>
       <c r="R13">
-        <v>2041.24768279378</v>
+        <v>67837.76918149632</v>
       </c>
       <c r="S13">
-        <v>0.05093589522731259</v>
+        <v>0.1633673784473051</v>
       </c>
       <c r="T13">
-        <v>0.05093589522731259</v>
+        <v>0.1824890375908234</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>135.5011471345446</v>
+        <v>16.328967893238</v>
       </c>
       <c r="R14">
-        <v>135.5011471345446</v>
+        <v>146.960711039142</v>
       </c>
       <c r="S14">
-        <v>0.003381202728019509</v>
+        <v>0.0003539117867066482</v>
       </c>
       <c r="T14">
-        <v>0.003381202728019509</v>
+        <v>0.0003953360944025751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>8569.29173227417</v>
+        <v>80.871090462162</v>
       </c>
       <c r="R15">
-        <v>8569.29173227417</v>
+        <v>727.839814159458</v>
       </c>
       <c r="S15">
-        <v>0.2138322309079087</v>
+        <v>0.001752788804871806</v>
       </c>
       <c r="T15">
-        <v>0.2138322309079087</v>
+        <v>0.001957947450348537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H16">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I16">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J16">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>63.64324753357698</v>
+        <v>2353.888900108746</v>
       </c>
       <c r="R16">
-        <v>63.64324753357698</v>
+        <v>14123.33340065247</v>
       </c>
       <c r="S16">
-        <v>0.001588109966086706</v>
+        <v>0.05101786174075436</v>
       </c>
       <c r="T16">
-        <v>0.001588109966086706</v>
+        <v>0.03799289910261982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H17">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I17">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J17">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.918771390257</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N17">
-        <v>17.918771390257</v>
+        <v>3.633172</v>
       </c>
       <c r="O17">
-        <v>0.2356939554538648</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P17">
-        <v>0.2356939554538648</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q17">
-        <v>2703.978869002452</v>
+        <v>186.9181937406622</v>
       </c>
       <c r="R17">
-        <v>2703.978869002452</v>
+        <v>1682.26374366596</v>
       </c>
       <c r="S17">
-        <v>0.06747323488929609</v>
+        <v>0.00405123902179584</v>
       </c>
       <c r="T17">
-        <v>0.06747323488929609</v>
+        <v>0.004525424336024213</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H18">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I18">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J18">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.897941217831048</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N18">
-        <v>0.897941217831048</v>
+        <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.01181103953983894</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P18">
-        <v>0.01181103953983894</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q18">
-        <v>43.8265688432728</v>
+        <v>9424.206747247616</v>
       </c>
       <c r="R18">
-        <v>43.8265688432728</v>
+        <v>84817.86072522854</v>
       </c>
       <c r="S18">
-        <v>0.001093618152069727</v>
+        <v>0.2042589507198708</v>
       </c>
       <c r="T18">
-        <v>0.001093618152069727</v>
+        <v>0.2281668451220443</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H19">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I19">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J19">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>56.7871225945224</v>
+        <v>0.132278</v>
       </c>
       <c r="N19">
-        <v>56.7871225945224</v>
+        <v>0.396834</v>
       </c>
       <c r="O19">
-        <v>0.7469475027972082</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P19">
-        <v>0.7469475027972082</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q19">
-        <v>2771.656638963293</v>
+        <v>20.41618026751333</v>
       </c>
       <c r="R19">
-        <v>2771.656638963293</v>
+        <v>183.74562240762</v>
       </c>
       <c r="S19">
-        <v>0.06916201956202404</v>
+        <v>0.0004424974611648802</v>
       </c>
       <c r="T19">
-        <v>0.06916201956202404</v>
+        <v>0.0004942904549968546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H20">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I20">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J20">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421752113583795</v>
+        <v>0.655122</v>
       </c>
       <c r="N20">
-        <v>0.421752113583795</v>
+        <v>1.965366</v>
       </c>
       <c r="O20">
-        <v>0.005547502209087931</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P20">
-        <v>0.005547502209087931</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q20">
-        <v>20.58480853058897</v>
+        <v>101.11347955982</v>
       </c>
       <c r="R20">
-        <v>20.58480853058897</v>
+        <v>910.02131603838</v>
       </c>
       <c r="S20">
-        <v>0.0005136591994330249</v>
+        <v>0.002191519540311002</v>
       </c>
       <c r="T20">
-        <v>0.0005136591994330249</v>
+        <v>0.002448030295729066</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H21">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I21">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J21">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.918771390257</v>
+        <v>19.068426</v>
       </c>
       <c r="N21">
-        <v>17.918771390257</v>
+        <v>38.136852</v>
       </c>
       <c r="O21">
-        <v>0.2356939554538648</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P21">
-        <v>0.2356939554538648</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q21">
-        <v>874.5764782007445</v>
+        <v>2943.07762918806</v>
       </c>
       <c r="R21">
-        <v>874.5764782007445</v>
+        <v>17658.46577512836</v>
       </c>
       <c r="S21">
-        <v>0.02182358184036485</v>
+        <v>0.06378785658545179</v>
       </c>
       <c r="T21">
-        <v>0.02182358184036485</v>
+        <v>0.047502688598325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.0323125</v>
+      </c>
+      <c r="H22">
+        <v>100.064625</v>
+      </c>
+      <c r="I22">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J22">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>60.59199895675001</v>
+      </c>
+      <c r="R22">
+        <v>363.5519937405001</v>
+      </c>
+      <c r="S22">
+        <v>0.001313262586534391</v>
+      </c>
+      <c r="T22">
+        <v>0.000977984008796463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.0323125</v>
+      </c>
+      <c r="H23">
+        <v>100.064625</v>
+      </c>
+      <c r="I23">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J23">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>3054.980973065125</v>
+      </c>
+      <c r="R23">
+        <v>18329.88583839075</v>
+      </c>
+      <c r="S23">
+        <v>0.06621323414935655</v>
+      </c>
+      <c r="T23">
+        <v>0.04930886239564003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.0323125</v>
+      </c>
+      <c r="H24">
+        <v>100.064625</v>
+      </c>
+      <c r="I24">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J24">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>6.618174232875001</v>
+      </c>
+      <c r="R24">
+        <v>39.70904539725</v>
+      </c>
+      <c r="S24">
+        <v>0.0001434413909566595</v>
+      </c>
+      <c r="T24">
+        <v>0.0001068205155568565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.0323125</v>
+      </c>
+      <c r="H25">
+        <v>100.064625</v>
+      </c>
+      <c r="I25">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J25">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>32.777268629625</v>
+      </c>
+      <c r="R25">
+        <v>196.66361177775</v>
+      </c>
+      <c r="S25">
+        <v>0.000710409976914594</v>
+      </c>
+      <c r="T25">
+        <v>0.0005290408820260283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.0323125</v>
+      </c>
+      <c r="H26">
+        <v>100.064625</v>
+      </c>
+      <c r="I26">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J26">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>954.037448515125</v>
+      </c>
+      <c r="R26">
+        <v>3816.1497940605</v>
+      </c>
+      <c r="S26">
+        <v>0.02067767541688059</v>
+      </c>
+      <c r="T26">
+        <v>0.01026574888330016</v>
       </c>
     </row>
   </sheetData>
